--- a/data/unitTests/excelTest/Feriekasse.xlsx
+++ b/data/unitTests/excelTest/Feriekasse.xlsx
@@ -26,13 +26,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <color rgb="00ff0000"/>
-    </font>
-    <font>
       <color rgb="0000ff00"/>
     </font>
     <font>
-      <color rgb="000000ff"/>
+      <color rgb="00000000"/>
+    </font>
+    <font>
+      <color rgb="00ff0000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B2">
-        <f>0</f>
+        <f>0+20</f>
         <v/>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="D2">
-        <f>0</f>
+        <f>0+10</f>
         <v/>
       </c>
       <c r="E2" s="1" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="B3">
-        <f>0</f>
+        <f>0+30</f>
         <v/>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="D3">
-        <f>0</f>
+        <f>0+40</f>
         <v/>
       </c>
       <c r="E3" s="2" t="inlineStr">

--- a/data/unitTests/excelTest/Feriekasse.xlsx
+++ b/data/unitTests/excelTest/Feriekasse.xlsx
@@ -26,13 +26,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <color rgb="0000ff00"/>
+      <color rgb="00ff00ff"/>
     </font>
     <font>
       <color rgb="00000000"/>
     </font>
     <font>
-      <color rgb="00ff0000"/>
+      <color rgb="0000ff00"/>
     </font>
   </fonts>
   <fills count="2">

--- a/data/unitTests/excelTest/Feriekasse.xlsx
+++ b/data/unitTests/excelTest/Feriekasse.xlsx
@@ -26,13 +26,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <color rgb="00ff00ff"/>
+      <color rgb="00ff9933"/>
+    </font>
+    <font>
+      <color rgb="000000ff"/>
     </font>
     <font>
       <color rgb="00000000"/>
-    </font>
-    <font>
-      <color rgb="0000ff00"/>
     </font>
   </fonts>
   <fills count="2">
